--- a/team_specific_matrix/Valparaiso_A.xlsx
+++ b/team_specific_matrix/Valparaiso_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1712707182320442</v>
+        <v>0.1776859504132231</v>
       </c>
       <c r="C2">
-        <v>0.5911602209944752</v>
+        <v>0.5785123966942148</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02209944751381215</v>
+        <v>0.02066115702479339</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1215469613259668</v>
+        <v>0.1446280991735537</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09392265193370165</v>
+        <v>0.07851239669421488</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.009433962264150943</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="C3">
-        <v>0.02830188679245283</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.009433962264150943</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7358490566037735</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2169811320754717</v>
+        <v>0.2285714285714286</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03333333333333333</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6666666666666666</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3</v>
+        <v>0.2647058823529412</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04102564102564103</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01025641025641026</v>
+        <v>0.00819672131147541</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07179487179487179</v>
+        <v>0.06147540983606557</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2461538461538462</v>
+        <v>0.2786885245901639</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02564102564102564</v>
+        <v>0.02049180327868852</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1538461538461539</v>
+        <v>0.1680327868852459</v>
       </c>
       <c r="R6">
-        <v>0.04615384615384616</v>
+        <v>0.03688524590163934</v>
       </c>
       <c r="S6">
-        <v>0.4051282051282051</v>
+        <v>0.3934426229508197</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05263157894736842</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02339181286549707</v>
+        <v>0.02051282051282051</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0935672514619883</v>
+        <v>0.08205128205128205</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.152046783625731</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02923976608187134</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1754385964912281</v>
+        <v>0.1846153846153846</v>
       </c>
       <c r="R7">
-        <v>0.04678362573099415</v>
+        <v>0.04615384615384616</v>
       </c>
       <c r="S7">
-        <v>0.4269005847953216</v>
+        <v>0.441025641025641</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09024390243902439</v>
+        <v>0.09306930693069307</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02682926829268293</v>
+        <v>0.02376237623762376</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.08292682926829269</v>
+        <v>0.07128712871287128</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08536585365853659</v>
+        <v>0.09306930693069307</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.007317073170731708</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1658536585365854</v>
+        <v>0.1722772277227723</v>
       </c>
       <c r="R8">
-        <v>0.1170731707317073</v>
+        <v>0.1049504950495049</v>
       </c>
       <c r="S8">
-        <v>0.424390243902439</v>
+        <v>0.4316831683168317</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06395348837209303</v>
+        <v>0.06965174129353234</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02325581395348837</v>
+        <v>0.02487562189054726</v>
       </c>
       <c r="E9">
-        <v>0.005813953488372093</v>
+        <v>0.004975124378109453</v>
       </c>
       <c r="F9">
-        <v>0.08139534883720931</v>
+        <v>0.07462686567164178</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06976744186046512</v>
+        <v>0.07462686567164178</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.005813953488372093</v>
+        <v>0.004975124378109453</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1627906976744186</v>
+        <v>0.1592039800995025</v>
       </c>
       <c r="R9">
-        <v>0.06395348837209303</v>
+        <v>0.06965174129353234</v>
       </c>
       <c r="S9">
-        <v>0.5232558139534884</v>
+        <v>0.5174129353233831</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08469387755102041</v>
+        <v>0.09244372990353698</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01122448979591837</v>
+        <v>0.01045016077170418</v>
       </c>
       <c r="E10">
-        <v>0.002040816326530612</v>
+        <v>0.001607717041800643</v>
       </c>
       <c r="F10">
-        <v>0.06122448979591837</v>
+        <v>0.06430868167202572</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1204081632653061</v>
+        <v>0.1302250803858521</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01020408163265306</v>
+        <v>0.008842443729903537</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2142857142857143</v>
+        <v>0.2057877813504823</v>
       </c>
       <c r="R10">
-        <v>0.09183673469387756</v>
+        <v>0.08762057877813505</v>
       </c>
       <c r="S10">
-        <v>0.4040816326530612</v>
+        <v>0.3987138263665595</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1635687732342007</v>
+        <v>0.1543408360128617</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08550185873605948</v>
+        <v>0.08681672025723473</v>
       </c>
       <c r="K11">
-        <v>0.2304832713754647</v>
+        <v>0.2218649517684887</v>
       </c>
       <c r="L11">
-        <v>0.4869888475836431</v>
+        <v>0.5048231511254019</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.03345724907063197</v>
+        <v>0.03215434083601286</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.75</v>
+        <v>0.7530864197530864</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1838235294117647</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="K12">
-        <v>0.01470588235294118</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="L12">
-        <v>0.03676470588235294</v>
+        <v>0.0308641975308642</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01470588235294118</v>
+        <v>0.01851851851851852</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7105263157894737</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2631578947368421</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02631578947368421</v>
+        <v>0.02222222222222222</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01176470588235294</v>
+        <v>0.02392344497607655</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2176470588235294</v>
+        <v>0.2200956937799043</v>
       </c>
       <c r="I15">
-        <v>0.05882352941176471</v>
+        <v>0.05741626794258373</v>
       </c>
       <c r="J15">
-        <v>0.3294117647058823</v>
+        <v>0.3444976076555024</v>
       </c>
       <c r="K15">
-        <v>0.05882352941176471</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01176470588235294</v>
+        <v>0.01435406698564593</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.08823529411764706</v>
+        <v>0.08133971291866028</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2235294117647059</v>
+        <v>0.2057416267942584</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03389830508474576</v>
+        <v>0.03870967741935484</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1864406779661017</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="I16">
-        <v>0.06779661016949153</v>
+        <v>0.07741935483870968</v>
       </c>
       <c r="J16">
-        <v>0.4067796610169492</v>
+        <v>0.4</v>
       </c>
       <c r="K16">
-        <v>0.1271186440677966</v>
+        <v>0.1096774193548387</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03389830508474576</v>
+        <v>0.02580645161290323</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05084745762711865</v>
+        <v>0.05161290322580645</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.09322033898305085</v>
+        <v>0.1032258064516129</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01648351648351648</v>
+        <v>0.01769911504424779</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.206043956043956</v>
+        <v>0.2057522123893805</v>
       </c>
       <c r="I17">
-        <v>0.0989010989010989</v>
+        <v>0.09734513274336283</v>
       </c>
       <c r="J17">
-        <v>0.3791208791208791</v>
+        <v>0.3960176991150443</v>
       </c>
       <c r="K17">
-        <v>0.1071428571428571</v>
+        <v>0.09513274336283185</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01923076923076923</v>
+        <v>0.01769911504424779</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0467032967032967</v>
+        <v>0.04646017699115045</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1263736263736264</v>
+        <v>0.1238938053097345</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.006024096385542169</v>
+        <v>0.005128205128205128</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2108433734939759</v>
+        <v>0.1948717948717949</v>
       </c>
       <c r="I18">
-        <v>0.07228915662650602</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="J18">
-        <v>0.3373493975903614</v>
+        <v>0.3692307692307693</v>
       </c>
       <c r="K18">
-        <v>0.144578313253012</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03012048192771084</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="N18">
-        <v>0.006024096385542169</v>
+        <v>0.005128205128205128</v>
       </c>
       <c r="O18">
-        <v>0.06626506024096386</v>
+        <v>0.07179487179487179</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1265060240963855</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01996370235934664</v>
+        <v>0.02431834929992631</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2232304900181488</v>
+        <v>0.2225497420781135</v>
       </c>
       <c r="I19">
-        <v>0.09709618874773139</v>
+        <v>0.0899042004421518</v>
       </c>
       <c r="J19">
-        <v>0.3566243194192377</v>
+        <v>0.3522476050110538</v>
       </c>
       <c r="K19">
-        <v>0.1061705989110708</v>
+        <v>0.105379513633014</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01996370235934664</v>
+        <v>0.01989683124539425</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06533575317604355</v>
+        <v>0.06853352984524687</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1116152450090744</v>
+        <v>0.1171702284450995</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Valparaiso_A.xlsx
+++ b/team_specific_matrix/Valparaiso_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1776859504132231</v>
+        <v>0.1771653543307087</v>
       </c>
       <c r="C2">
-        <v>0.5785123966942148</v>
+        <v>0.5748031496062992</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02066115702479339</v>
+        <v>0.02362204724409449</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.003937007874015748</v>
       </c>
       <c r="P2">
-        <v>0.1446280991735537</v>
+        <v>0.1417322834645669</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07851239669421488</v>
+        <v>0.07874015748031496</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01428571428571429</v>
+        <v>0.01379310344827586</v>
       </c>
       <c r="C3">
-        <v>0.02857142857142857</v>
+        <v>0.02758620689655172</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01428571428571429</v>
+        <v>0.01379310344827586</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7142857142857143</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2285714285714286</v>
+        <v>0.2206896551724138</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05882352941176471</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6764705882352942</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2647058823529412</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03278688524590164</v>
+        <v>0.0311284046692607</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.00819672131147541</v>
+        <v>0.007782101167315175</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06147540983606557</v>
+        <v>0.05836575875486381</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2786885245901639</v>
+        <v>0.2801556420233463</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02049180327868852</v>
+        <v>0.01945525291828794</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1680327868852459</v>
+        <v>0.1673151750972763</v>
       </c>
       <c r="R6">
-        <v>0.03688524590163934</v>
+        <v>0.03501945525291829</v>
       </c>
       <c r="S6">
-        <v>0.3934426229508197</v>
+        <v>0.4007782101167315</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.06153846153846154</v>
+        <v>0.06796116504854369</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02051282051282051</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.08205128205128205</v>
+        <v>0.07766990291262135</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1333333333333333</v>
+        <v>0.1262135922330097</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03076923076923077</v>
+        <v>0.02912621359223301</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1846153846153846</v>
+        <v>0.1844660194174757</v>
       </c>
       <c r="R7">
-        <v>0.04615384615384616</v>
+        <v>0.05339805825242718</v>
       </c>
       <c r="S7">
-        <v>0.441025641025641</v>
+        <v>0.441747572815534</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09306930693069307</v>
+        <v>0.09107468123861566</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02376237623762376</v>
+        <v>0.02185792349726776</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07128712871287128</v>
+        <v>0.0692167577413479</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09306930693069307</v>
+        <v>0.09107468123861566</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.009900990099009901</v>
+        <v>0.009107468123861567</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1722772277227723</v>
+        <v>0.1730418943533698</v>
       </c>
       <c r="R8">
-        <v>0.1049504950495049</v>
+        <v>0.1056466302367942</v>
       </c>
       <c r="S8">
-        <v>0.4316831683168317</v>
+        <v>0.4389799635701275</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06965174129353234</v>
+        <v>0.06635071090047394</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02487562189054726</v>
+        <v>0.02369668246445497</v>
       </c>
       <c r="E9">
-        <v>0.004975124378109453</v>
+        <v>0.004739336492890996</v>
       </c>
       <c r="F9">
-        <v>0.07462686567164178</v>
+        <v>0.07582938388625593</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07462686567164178</v>
+        <v>0.08056872037914692</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.004975124378109453</v>
+        <v>0.004739336492890996</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1592039800995025</v>
+        <v>0.1563981042654028</v>
       </c>
       <c r="R9">
-        <v>0.06965174129353234</v>
+        <v>0.06635071090047394</v>
       </c>
       <c r="S9">
-        <v>0.5174129353233831</v>
+        <v>0.5213270142180095</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09244372990353698</v>
+        <v>0.09063444108761329</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01045016077170418</v>
+        <v>0.01057401812688822</v>
       </c>
       <c r="E10">
-        <v>0.001607717041800643</v>
+        <v>0.001510574018126888</v>
       </c>
       <c r="F10">
-        <v>0.06430868167202572</v>
+        <v>0.06570996978851963</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1302250803858521</v>
+        <v>0.1253776435045317</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.008842443729903537</v>
+        <v>0.00906344410876133</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2057877813504823</v>
+        <v>0.2046827794561933</v>
       </c>
       <c r="R10">
-        <v>0.08762057877813505</v>
+        <v>0.08987915407854985</v>
       </c>
       <c r="S10">
-        <v>0.3987138263665595</v>
+        <v>0.4025679758308157</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1543408360128617</v>
+        <v>0.1512345679012346</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08681672025723473</v>
+        <v>0.08641975308641975</v>
       </c>
       <c r="K11">
-        <v>0.2218649517684887</v>
+        <v>0.2160493827160494</v>
       </c>
       <c r="L11">
-        <v>0.5048231511254019</v>
+        <v>0.5154320987654321</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.03215434083601286</v>
+        <v>0.0308641975308642</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7530864197530864</v>
+        <v>0.75</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1851851851851852</v>
+        <v>0.1918604651162791</v>
       </c>
       <c r="K12">
-        <v>0.01234567901234568</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="L12">
-        <v>0.0308641975308642</v>
+        <v>0.02906976744186046</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01851851851851852</v>
+        <v>0.01744186046511628</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6222222222222222</v>
+        <v>0.625</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3555555555555556</v>
+        <v>0.3541666666666667</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02222222222222222</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02392344497607655</v>
+        <v>0.02202643171806168</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2200956937799043</v>
+        <v>0.2158590308370044</v>
       </c>
       <c r="I15">
-        <v>0.05741626794258373</v>
+        <v>0.06167400881057269</v>
       </c>
       <c r="J15">
-        <v>0.3444976076555024</v>
+        <v>0.3568281938325991</v>
       </c>
       <c r="K15">
-        <v>0.05263157894736842</v>
+        <v>0.05726872246696035</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01435406698564593</v>
+        <v>0.013215859030837</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.08133971291866028</v>
+        <v>0.07929515418502203</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2057416267942584</v>
+        <v>0.1938325991189427</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03870967741935484</v>
+        <v>0.03726708074534162</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1935483870967742</v>
+        <v>0.1863354037267081</v>
       </c>
       <c r="I16">
-        <v>0.07741935483870968</v>
+        <v>0.08074534161490683</v>
       </c>
       <c r="J16">
-        <v>0.4</v>
+        <v>0.3975155279503105</v>
       </c>
       <c r="K16">
-        <v>0.1096774193548387</v>
+        <v>0.1055900621118012</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02580645161290323</v>
+        <v>0.02484472049689441</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05161290322580645</v>
+        <v>0.06211180124223602</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1032258064516129</v>
+        <v>0.1055900621118012</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01769911504424779</v>
+        <v>0.01670146137787056</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2057522123893805</v>
+        <v>0.2025052192066806</v>
       </c>
       <c r="I17">
-        <v>0.09734513274336283</v>
+        <v>0.1002087682672234</v>
       </c>
       <c r="J17">
-        <v>0.3960176991150443</v>
+        <v>0.4008350730688935</v>
       </c>
       <c r="K17">
-        <v>0.09513274336283185</v>
+        <v>0.08977035490605428</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01769911504424779</v>
+        <v>0.01670146137787056</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04646017699115045</v>
+        <v>0.04801670146137787</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1238938053097345</v>
+        <v>0.1252609603340292</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.005128205128205128</v>
+        <v>0.004739336492890996</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1948717948717949</v>
+        <v>0.1990521327014218</v>
       </c>
       <c r="I18">
-        <v>0.06153846153846154</v>
+        <v>0.05687203791469194</v>
       </c>
       <c r="J18">
-        <v>0.3692307692307693</v>
+        <v>0.3744075829383886</v>
       </c>
       <c r="K18">
-        <v>0.1333333333333333</v>
+        <v>0.1327014218009479</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02564102564102564</v>
+        <v>0.02369668246445497</v>
       </c>
       <c r="N18">
-        <v>0.005128205128205128</v>
+        <v>0.004739336492890996</v>
       </c>
       <c r="O18">
-        <v>0.07179487179487179</v>
+        <v>0.07582938388625593</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1333333333333333</v>
+        <v>0.1279620853080569</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02431834929992631</v>
+        <v>0.02405498281786942</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2225497420781135</v>
+        <v>0.2302405498281787</v>
       </c>
       <c r="I19">
-        <v>0.0899042004421518</v>
+        <v>0.0859106529209622</v>
       </c>
       <c r="J19">
-        <v>0.3522476050110538</v>
+        <v>0.3484536082474227</v>
       </c>
       <c r="K19">
-        <v>0.105379513633014</v>
+        <v>0.10446735395189</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01989683124539425</v>
+        <v>0.02061855670103093</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.0006872852233676976</v>
       </c>
       <c r="O19">
-        <v>0.06853352984524687</v>
+        <v>0.06804123711340206</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1171702284450995</v>
+        <v>0.1175257731958763</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Valparaiso_A.xlsx
+++ b/team_specific_matrix/Valparaiso_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1771653543307087</v>
+        <v>0.178988326848249</v>
       </c>
       <c r="C2">
-        <v>0.5748031496062992</v>
+        <v>0.5719844357976653</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02362204724409449</v>
+        <v>0.02334630350194553</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.003937007874015748</v>
+        <v>0.003891050583657588</v>
       </c>
       <c r="P2">
-        <v>0.1417322834645669</v>
+        <v>0.1400778210116732</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07874015748031496</v>
+        <v>0.08171206225680934</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01379310344827586</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="C3">
-        <v>0.02758620689655172</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01379310344827586</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7241379310344828</v>
+        <v>0.726027397260274</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2206896551724138</v>
+        <v>0.2191780821917808</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05714285714285714</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6571428571428571</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2857142857142857</v>
+        <v>0.2777777777777778</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0311284046692607</v>
+        <v>0.0339622641509434</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.007782101167315175</v>
+        <v>0.007547169811320755</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05836575875486381</v>
+        <v>0.06037735849056604</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2801556420233463</v>
+        <v>0.2754716981132075</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01945525291828794</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1673151750972763</v>
+        <v>0.1660377358490566</v>
       </c>
       <c r="R6">
-        <v>0.03501945525291829</v>
+        <v>0.0339622641509434</v>
       </c>
       <c r="S6">
-        <v>0.4007782101167315</v>
+        <v>0.4037735849056604</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.06796116504854369</v>
+        <v>0.0673076923076923</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01941747572815534</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07766990291262135</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1262135922330097</v>
+        <v>0.125</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02912621359223301</v>
+        <v>0.02884615384615385</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1844660194174757</v>
+        <v>0.1875</v>
       </c>
       <c r="R7">
-        <v>0.05339805825242718</v>
+        <v>0.05288461538461538</v>
       </c>
       <c r="S7">
-        <v>0.441747572815534</v>
+        <v>0.4423076923076923</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09107468123861566</v>
+        <v>0.08947368421052632</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02185792349726776</v>
+        <v>0.02105263157894737</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0692167577413479</v>
+        <v>0.06842105263157895</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09107468123861566</v>
+        <v>0.08947368421052632</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.009107468123861567</v>
+        <v>0.008771929824561403</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1730418943533698</v>
+        <v>0.1771929824561403</v>
       </c>
       <c r="R8">
-        <v>0.1056466302367942</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="S8">
-        <v>0.4389799635701275</v>
+        <v>0.4403508771929824</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06635071090047394</v>
+        <v>0.0639269406392694</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02369668246445497</v>
+        <v>0.0228310502283105</v>
       </c>
       <c r="E9">
-        <v>0.004739336492890996</v>
+        <v>0.0045662100456621</v>
       </c>
       <c r="F9">
-        <v>0.07582938388625593</v>
+        <v>0.0776255707762557</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08056872037914692</v>
+        <v>0.0821917808219178</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.004739336492890996</v>
+        <v>0.0045662100456621</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1563981042654028</v>
+        <v>0.1598173515981735</v>
       </c>
       <c r="R9">
-        <v>0.06635071090047394</v>
+        <v>0.0639269406392694</v>
       </c>
       <c r="S9">
-        <v>0.5213270142180095</v>
+        <v>0.5205479452054794</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09063444108761329</v>
+        <v>0.08883994126284875</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01057401812688822</v>
+        <v>0.01101321585903084</v>
       </c>
       <c r="E10">
-        <v>0.001510574018126888</v>
+        <v>0.001468428781204112</v>
       </c>
       <c r="F10">
-        <v>0.06570996978851963</v>
+        <v>0.06607929515418502</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1253776435045317</v>
+        <v>0.1262848751835536</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.00906344410876133</v>
+        <v>0.00881057268722467</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2046827794561933</v>
+        <v>0.2063142437591777</v>
       </c>
       <c r="R10">
-        <v>0.08987915407854985</v>
+        <v>0.09251101321585903</v>
       </c>
       <c r="S10">
-        <v>0.4025679758308157</v>
+        <v>0.3986784140969163</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1512345679012346</v>
+        <v>0.1503067484662577</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08641975308641975</v>
+        <v>0.08588957055214724</v>
       </c>
       <c r="K11">
-        <v>0.2160493827160494</v>
+        <v>0.2147239263803681</v>
       </c>
       <c r="L11">
-        <v>0.5154320987654321</v>
+        <v>0.5184049079754601</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0308641975308642</v>
+        <v>0.03067484662576687</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.75</v>
+        <v>0.7471264367816092</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1918604651162791</v>
+        <v>0.1896551724137931</v>
       </c>
       <c r="K12">
-        <v>0.01162790697674419</v>
+        <v>0.01149425287356322</v>
       </c>
       <c r="L12">
-        <v>0.02906976744186046</v>
+        <v>0.02873563218390805</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01744186046511628</v>
+        <v>0.02298850574712644</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.625</v>
+        <v>0.6326530612244898</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3541666666666667</v>
+        <v>0.3469387755102041</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02083333333333333</v>
+        <v>0.02040816326530612</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02202643171806168</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2158590308370044</v>
+        <v>0.2151898734177215</v>
       </c>
       <c r="I15">
-        <v>0.06167400881057269</v>
+        <v>0.06329113924050633</v>
       </c>
       <c r="J15">
-        <v>0.3568281938325991</v>
+        <v>0.3586497890295359</v>
       </c>
       <c r="K15">
-        <v>0.05726872246696035</v>
+        <v>0.05485232067510549</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.013215859030837</v>
+        <v>0.01687763713080169</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.07929515418502203</v>
+        <v>0.0759493670886076</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1938325991189427</v>
+        <v>0.189873417721519</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03726708074534162</v>
+        <v>0.03680981595092025</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1863354037267081</v>
+        <v>0.1901840490797546</v>
       </c>
       <c r="I16">
-        <v>0.08074534161490683</v>
+        <v>0.07975460122699386</v>
       </c>
       <c r="J16">
-        <v>0.3975155279503105</v>
+        <v>0.3987730061349693</v>
       </c>
       <c r="K16">
-        <v>0.1055900621118012</v>
+        <v>0.1042944785276074</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02484472049689441</v>
+        <v>0.0245398773006135</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06211180124223602</v>
+        <v>0.06134969325153374</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1055900621118012</v>
+        <v>0.1042944785276074</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01670146137787056</v>
+        <v>0.01603206412825651</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2025052192066806</v>
+        <v>0.2044088176352706</v>
       </c>
       <c r="I17">
-        <v>0.1002087682672234</v>
+        <v>0.09819639278557114</v>
       </c>
       <c r="J17">
-        <v>0.4008350730688935</v>
+        <v>0.4008016032064128</v>
       </c>
       <c r="K17">
-        <v>0.08977035490605428</v>
+        <v>0.09018036072144289</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01670146137787056</v>
+        <v>0.01603206412825651</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04801670146137787</v>
+        <v>0.05210420841683366</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1252609603340292</v>
+        <v>0.1222444889779559</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.004739336492890996</v>
+        <v>0.004545454545454545</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1990521327014218</v>
+        <v>0.2045454545454546</v>
       </c>
       <c r="I18">
-        <v>0.05687203791469194</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="J18">
-        <v>0.3744075829383886</v>
+        <v>0.3681818181818182</v>
       </c>
       <c r="K18">
-        <v>0.1327014218009479</v>
+        <v>0.1272727272727273</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02369668246445497</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="N18">
-        <v>0.004739336492890996</v>
+        <v>0.004545454545454545</v>
       </c>
       <c r="O18">
-        <v>0.07582938388625593</v>
+        <v>0.07727272727272727</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1279620853080569</v>
+        <v>0.1227272727272727</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02405498281786942</v>
+        <v>0.02350570852921424</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2302405498281787</v>
+        <v>0.2316991269308261</v>
       </c>
       <c r="I19">
-        <v>0.0859106529209622</v>
+        <v>0.08596373404969779</v>
       </c>
       <c r="J19">
-        <v>0.3484536082474227</v>
+        <v>0.3505708529214238</v>
       </c>
       <c r="K19">
-        <v>0.10446735395189</v>
+        <v>0.1020819341840161</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02061855670103093</v>
+        <v>0.02014775016789792</v>
       </c>
       <c r="N19">
-        <v>0.0006872852233676976</v>
+        <v>0.000671591672263264</v>
       </c>
       <c r="O19">
-        <v>0.06804123711340206</v>
+        <v>0.06984553391537945</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1175257731958763</v>
+        <v>0.1155137676292814</v>
       </c>
     </row>
   </sheetData>
